--- a/doc/Master Data/1.MasterData_Redtag.xlsx
+++ b/doc/Master Data/1.MasterData_Redtag.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud_GDrive_1\78.Silueta-Maintenance Management System\MMS-1810A\1.doc\5.Master Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\silufix.lk\doc\Master Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3392470-8D14-424A-8741-3F0C94AE0732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC61F7D-729B-4FE7-9813-09E3BE459A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData-Redtag" sheetId="1" r:id="rId1"/>
@@ -1380,19 +1380,19 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="29.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="91.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="29.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="91.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>3</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>3</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>3</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>3</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>3</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>3</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>3</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>3</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>3</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>3</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>16</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>60</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>20</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>16</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>16</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>16</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>16</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>16</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>16</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>16</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>16</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>20</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>175</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>175</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>175</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>175</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>175</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>175</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>175</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>175</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>16</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>60</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>20</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>175</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>175</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>175</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>175</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>16</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>60</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>20</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>16</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>16</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>20</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>20</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>3</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>16</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
         <v>16</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>20</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>60</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
         <v>3</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>60</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>16</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>153</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>153</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>153</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>153</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>153</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>153</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>153</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>153</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>153</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>153</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
         <v>175</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
         <v>175</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
         <v>175</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>175</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
         <v>175</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
         <v>175</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
         <v>175</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
         <v>175</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
         <v>175</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
         <v>16</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>60</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>175</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
         <v>16</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>60</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>175</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>16</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>16</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>16</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>16</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>153</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>153</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>153</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>153</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>153</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>216</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>16</v>
       </c>
